--- a/assets/formatos/doctorado/formato-actividades-academicas-complementarias.xlsx
+++ b/assets/formatos/doctorado/formato-actividades-academicas-complementarias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
-  <workbookPr showInkAnnotation="0" checkCompatibility="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sostenibilidad/Google Drive/Implantación PCS/Actividades académicas complementarias/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sostenibilidad UNAM\Documents\GitHub\pcs-unam.github.io\assets\formatos\doctorado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86D18485-8141-0F46-BE3A-969D327BC065}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A03AD7E-4693-409E-B15B-4F05A1C68A49}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31760" yWindow="3260" windowWidth="29060" windowHeight="24660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25275" yWindow="1125" windowWidth="23625" windowHeight="18420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -114,10 +114,10 @@
     <t>Evaluador responsable: (tutor principal del alumno)</t>
   </si>
   <si>
-    <t>Evaluador responsable (tutor principal del alumno) y tutor externo:</t>
-  </si>
-  <si>
     <t>5. Publicación de requisito para obtención del grado (Anexar solicitud de autorización de revista para la publicación del artículo)</t>
+  </si>
+  <si>
+    <t>Evaluador responsable (tutor principal del alumno)</t>
   </si>
 </sst>
 </file>
@@ -359,74 +359,74 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,57 +767,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="1.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="1.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="1.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="1.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="1.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="1.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="1.1640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="1.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="2" customWidth="1"/>
     <col min="11" max="11" width="0.5" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="2"/>
+    <col min="12" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="28"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="37"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -832,7 +832,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:11" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -845,22 +845,22 @@
       <c r="J4" s="4"/>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="4" t="s">
         <v>24</v>
@@ -881,33 +881,33 @@
       </c>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>4</v>
@@ -915,111 +915,111 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
       <c r="K14" s="11"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="36"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="25"/>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1032,22 +1032,22 @@
       <c r="J17" s="6"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
       <c r="K18" s="19"/>
     </row>
-    <row r="19" spans="1:11" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1060,7 +1060,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:11" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1073,35 +1073,35 @@
       <c r="J20" s="8"/>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="11"/>
     </row>
-    <row r="22" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="36"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="25"/>
       <c r="K22" s="11"/>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="4" t="s">
         <v>7</v>
@@ -1116,20 +1116,20 @@
       <c r="J23" s="4"/>
       <c r="K23" s="11"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
       <c r="K24" s="11"/>
     </row>
-    <row r="25" spans="1:11" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -1142,35 +1142,35 @@
       <c r="J25" s="13"/>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
       <c r="K26" s="11"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="36"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="25"/>
       <c r="K27" s="11"/>
     </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>11</v>
@@ -1185,20 +1185,20 @@
       <c r="J28" s="4"/>
       <c r="K28" s="11"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
       <c r="K29" s="11"/>
     </row>
-    <row r="30" spans="1:11" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -1211,35 +1211,35 @@
       <c r="J30" s="13"/>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
       <c r="K31" s="11"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="36"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="25"/>
       <c r="K32" s="11"/>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
       <c r="B33" s="4" t="s">
         <v>20</v>
@@ -1254,7 +1254,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="11"/>
     </row>
-    <row r="34" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1267,7 +1267,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="11"/>
     </row>
-    <row r="35" spans="1:11" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1280,7 +1280,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="9"/>
     </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
       <c r="B36" s="16" t="s">
         <v>13</v>
@@ -1295,20 +1295,20 @@
       <c r="J36" s="15"/>
       <c r="K36" s="11"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="36"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="25"/>
       <c r="K37" s="11"/>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
       <c r="B38" s="4" t="s">
         <v>14</v>
@@ -1323,48 +1323,48 @@
       <c r="J38" s="4"/>
       <c r="K38" s="11"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="36"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="25"/>
       <c r="K39" s="11"/>
     </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="1:11" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -1377,35 +1377,35 @@
       <c r="J42" s="13"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
-      <c r="B43" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
+      <c r="B43" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
       <c r="K43" s="11"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="40"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
       <c r="K44" s="11"/>
     </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
       <c r="B45" s="4" t="s">
         <v>26</v>
@@ -1420,20 +1420,20 @@
       <c r="J45" s="4"/>
       <c r="K45" s="11"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:11" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -1446,38 +1446,38 @@
       <c r="J47" s="13"/>
       <c r="K47" s="14"/>
     </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="40"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="29"/>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
       <c r="B50" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -1489,20 +1489,20 @@
       <c r="J50" s="4"/>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -1515,376 +1515,365 @@
       <c r="J52" s="13"/>
       <c r="K52" s="14"/>
     </row>
-    <row r="53" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
-      <c r="B53" s="41" t="s">
+      <c r="B53" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
       <c r="K53" s="11"/>
     </row>
-    <row r="54" spans="1:11" s="1" customFormat="1" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="26" t="s">
+      <c r="F54" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
       <c r="K54" s="11"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
       <c r="K57" s="11"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="12"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
       <c r="E58" s="20"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
       <c r="K58" s="14"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="23"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="23"/>
-      <c r="J68" s="23"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
-      <c r="I70" s="23"/>
-      <c r="J70" s="23"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
-      <c r="I72" s="23"/>
-      <c r="J72" s="23"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="23"/>
-      <c r="J73" s="23"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
-      <c r="I74" s="23"/>
-      <c r="J74" s="23"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="23"/>
-      <c r="J76" s="23"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="23"/>
-      <c r="J77" s="23"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="23"/>
-      <c r="J78" s="23"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="23"/>
-      <c r="J79" s="23"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="23"/>
-      <c r="J80" s="23"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="23"/>
-      <c r="J81" s="23"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="23"/>
-      <c r="J82" s="23"/>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B72" s="42"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B75" s="42"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B76" s="42"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B77" s="42"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B78" s="42"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B79" s="42"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B80" s="42"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B81" s="42"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="42"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B82" s="42"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="B48:J48"/>
-    <mergeCell ref="B49:J49"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B53:J53"/>
-    <mergeCell ref="B51:J51"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B46:J46"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="B59:J82"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="F54:J54"/>
     <mergeCell ref="D1:K1"/>
@@ -1901,15 +1890,26 @@
     <mergeCell ref="B16:J16"/>
     <mergeCell ref="B8:J8"/>
     <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="B59:J82"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="B49:J49"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B53:J53"/>
+    <mergeCell ref="B51:J51"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="B48:J48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/formatos/doctorado/formato-actividades-academicas-complementarias.xlsx
+++ b/assets/formatos/doctorado/formato-actividades-academicas-complementarias.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sostenibilidad UNAM\Documents\GitHub\pcs-unam.github.io\assets\formatos\doctorado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sostenibilidad UNAM\Google Drive\Implantación PCS\Actividades académicas complementarias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A03AD7E-4693-409E-B15B-4F05A1C68A49}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F83CC0-1106-4C89-880E-90FCCFAE0649}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25275" yWindow="1125" windowWidth="23625" windowHeight="18420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24540" yWindow="3705" windowWidth="32490" windowHeight="16590" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$K$58</definedName>
   </definedNames>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Doctorado en Ciencias de la Sostenibilidad</t>
   </si>
   <si>
-    <t>Registro de Actividades Académicas Complementarias</t>
-  </si>
-  <si>
     <t>Semestre</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>Evaluador responsable:</t>
   </si>
   <si>
-    <t>Comité Tutor del alumno:</t>
-  </si>
-  <si>
     <t>1. Curso (Anexar programa cuando no sea un curso ofrecido por este Posgrado. Debe indicar número de horas)</t>
   </si>
   <si>
@@ -111,20 +105,29 @@
     <t>Nombre(s)</t>
   </si>
   <si>
-    <t>Evaluador responsable: (tutor principal del alumno)</t>
-  </si>
-  <si>
-    <t>5. Publicación de requisito para obtención del grado (Anexar solicitud de autorización de revista para la publicación del artículo)</t>
-  </si>
-  <si>
-    <t>Evaluador responsable (tutor principal del alumno)</t>
+    <t>Tutor prinicpal o cotutor:</t>
+  </si>
+  <si>
+    <t>Evaluador responsable (tutor principal o cotutor del alumno)</t>
+  </si>
+  <si>
+    <t>Evaluador responsable: (tutor principal o cotutor del alumno)</t>
+  </si>
+  <si>
+    <t>* En caso de que la revista no esté autorizada por el Comité Académico, será necesario enviar en formato digital la solicitud de autorización</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Publicación de requisito para obtención del grado* </t>
+  </si>
+  <si>
+    <t>Registro de Actividad Académica Complementaria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -170,6 +173,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -329,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -359,23 +369,53 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -386,47 +426,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,7 +781,7 @@
   <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:K2"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -791,31 +804,31 @@
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="37"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="D2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
@@ -824,7 +837,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="3"/>
@@ -847,37 +860,37 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
-      <c r="B5" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
+      <c r="B5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
       <c r="K5" s="18"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K6" s="11"/>
     </row>
@@ -887,136 +900,136 @@
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
+      <c r="F9" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
-      <c r="B12" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
+      <c r="B12" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
-      <c r="B15" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
+      <c r="B15" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="35"/>
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1034,17 +1047,17 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
-      <c r="B18" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
+      <c r="B18" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
       <c r="K18" s="19"/>
     </row>
     <row r="19" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
@@ -1075,36 +1088,36 @@
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
-      <c r="B21" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="B21" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
       <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="35"/>
       <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1118,15 +1131,15 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1144,36 +1157,36 @@
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
-      <c r="B26" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="B26" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
       <c r="K26" s="11"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="25"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="35"/>
       <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1187,15 +1200,15 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
       <c r="K29" s="11"/>
     </row>
     <row r="30" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1213,36 +1226,36 @@
     </row>
     <row r="31" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
-      <c r="B31" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
+      <c r="B31" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
       <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="25"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="35"/>
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
       <c r="B33" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1283,7 +1296,7 @@
     <row r="36" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
       <c r="B36" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -1297,21 +1310,21 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="25"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="35"/>
       <c r="K37" s="11"/>
     </row>
     <row r="38" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
       <c r="B38" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1325,43 +1338,43 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="25"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="35"/>
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
-      <c r="B40" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
+      <c r="B40" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
       <c r="K40" s="11"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
       <c r="K41" s="11"/>
     </row>
     <row r="42" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1379,30 +1392,30 @@
     </row>
     <row r="43" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
-      <c r="B43" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
+      <c r="B43" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
       <c r="K43" s="11"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="39"/>
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -1422,15 +1435,15 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1448,36 +1461,36 @@
     </row>
     <row r="48" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
-      <c r="B48" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
+      <c r="B48" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="29"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="39"/>
       <c r="K49" s="11"/>
     </row>
     <row r="50" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
       <c r="B50" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -1491,15 +1504,15 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
       <c r="K51" s="11"/>
     </row>
     <row r="52" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1517,363 +1530,377 @@
     </row>
     <row r="53" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
-      <c r="B53" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
+      <c r="B53" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
       <c r="K53" s="11"/>
     </row>
     <row r="54" spans="1:11" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
       <c r="K54" s="11"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="43"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
       <c r="K55" s="11"/>
     </row>
     <row r="56" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
       <c r="K56" s="11"/>
     </row>
     <row r="57" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
       <c r="K57" s="11"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="12"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
+      <c r="B58" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
       <c r="K58" s="14"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="42"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B64" s="42"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B66" s="42"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="42"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="42"/>
-      <c r="J66" s="42"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="42"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
-      <c r="H68" s="42"/>
-      <c r="I68" s="42"/>
-      <c r="J68" s="42"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="42"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="42"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="42"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="42"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B71" s="42"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="42"/>
-      <c r="H71" s="42"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="42"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="42"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B75" s="42"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="42"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B77" s="42"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="42"/>
-      <c r="H77" s="42"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="42"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B78" s="42"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="42"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="42"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B79" s="42"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="42"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="42"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="42"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="42"/>
-      <c r="H80" s="42"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="42"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="42"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="42"/>
-      <c r="H81" s="42"/>
-      <c r="I81" s="42"/>
-      <c r="J81" s="42"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B82" s="42"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="42"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="42"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="B59:J82"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
+  <mergeCells count="44">
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="B49:J49"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B53:J53"/>
+    <mergeCell ref="B51:J51"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B21:J21"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="F54:J54"/>
     <mergeCell ref="D1:K1"/>
@@ -1890,30 +1917,17 @@
     <mergeCell ref="B16:J16"/>
     <mergeCell ref="B8:J8"/>
     <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B49:J49"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B53:J53"/>
-    <mergeCell ref="B51:J51"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B46:J46"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="B59:J82"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/assets/formatos/doctorado/formato-actividades-academicas-complementarias.xlsx
+++ b/assets/formatos/doctorado/formato-actividades-academicas-complementarias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sostenibilidad UNAM\Google Drive\Implantación PCS\Actividades académicas complementarias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F83CC0-1106-4C89-880E-90FCCFAE0649}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44661D4A-9EFF-48D2-BDE0-CA3E5BDF61F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24540" yWindow="3705" windowWidth="32490" windowHeight="16590" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36225" yWindow="2325" windowWidth="20460" windowHeight="18675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -105,9 +105,6 @@
     <t>Nombre(s)</t>
   </si>
   <si>
-    <t>Tutor prinicpal o cotutor:</t>
-  </si>
-  <si>
     <t>Evaluador responsable (tutor principal o cotutor del alumno)</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>Registro de Actividad Académica Complementaria</t>
+  </si>
+  <si>
+    <t>Tutor principal o cotutor:</t>
   </si>
 </sst>
 </file>
@@ -369,77 +369,77 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -804,31 +804,31 @@
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
+      <c r="D2" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="40"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
@@ -860,17 +860,17 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
       <c r="K5" s="18"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -900,24 +900,24 @@
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -928,108 +928,108 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="35"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1047,17 +1047,17 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
       <c r="K18" s="19"/>
     </row>
     <row r="19" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
@@ -1088,30 +1088,30 @@
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
       <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="35"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
       <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -1131,15 +1131,15 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1157,30 +1157,30 @@
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
       <c r="K26" s="11"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="35"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="24"/>
       <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -1200,15 +1200,15 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
       <c r="K29" s="11"/>
     </row>
     <row r="30" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1226,30 +1226,30 @@
     </row>
     <row r="31" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
       <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="35"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="24"/>
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -1310,15 +1310,15 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="35"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="24"/>
       <c r="K37" s="11"/>
     </row>
     <row r="38" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -1338,43 +1338,43 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="35"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="24"/>
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
       <c r="K40" s="11"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
       <c r="K41" s="11"/>
     </row>
     <row r="42" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1392,36 +1392,36 @@
     </row>
     <row r="43" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
-      <c r="B43" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
+      <c r="B43" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
       <c r="K43" s="11"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="39"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="30"/>
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
       <c r="B45" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -1435,15 +1435,15 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1461,36 +1461,36 @@
     </row>
     <row r="48" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="39"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="30"/>
       <c r="K49" s="11"/>
     </row>
     <row r="50" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
       <c r="B50" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -1504,15 +1504,15 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
       <c r="K51" s="11"/>
     </row>
     <row r="52" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1530,34 +1530,34 @@
     </row>
     <row r="53" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
-      <c r="B53" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
+      <c r="B53" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
       <c r="K53" s="11"/>
     </row>
     <row r="54" spans="1:11" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="25" t="s">
+      <c r="F54" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
       <c r="K54" s="11"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -1566,24 +1566,24 @@
       <c r="C55" s="43"/>
       <c r="D55" s="43"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
       <c r="K55" s="11"/>
     </row>
     <row r="56" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
       <c r="E56" s="20"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
       <c r="K56" s="11"/>
     </row>
     <row r="57" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1592,300 +1592,313 @@
       <c r="C57" s="43"/>
       <c r="D57" s="43"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
       <c r="K57" s="11"/>
     </row>
     <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="12"/>
-      <c r="B58" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="44"/>
+      <c r="B58" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
       <c r="K58" s="14"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="22"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="22"/>
-      <c r="J76" s="22"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="22"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="42"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22"/>
-      <c r="J82" s="22"/>
+      <c r="B82" s="42"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="B48:J48"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="B49:J49"/>
+    <mergeCell ref="B59:J82"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F10:J10"/>
     <mergeCell ref="B12:J12"/>
     <mergeCell ref="B53:J53"/>
     <mergeCell ref="B51:J51"/>
@@ -1901,29 +1914,16 @@
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="B26:J26"/>
     <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="B49:J49"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="F54:J54"/>
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="B31:J31"/>
     <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B59:J82"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/formatos/doctorado/formato-actividades-academicas-complementarias.xlsx
+++ b/assets/formatos/doctorado/formato-actividades-academicas-complementarias.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sostenibilidad UNAM\Google Drive\Implantación PCS\Actividades académicas complementarias\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sostenibilidadunam/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44661D4A-9EFF-48D2-BDE0-CA3E5BDF61F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC09A69B-1FCF-864A-B167-D8B8F52371D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36225" yWindow="2325" windowWidth="20460" windowHeight="18675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$K$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$K$59</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -369,77 +370,77 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,59 +779,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="1.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="1.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="1.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="1.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="1.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="1.33203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="1.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="1.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" style="2" customWidth="1"/>
     <col min="11" max="11" width="0.5" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="2"/>
+    <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="32"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="40"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -845,7 +846,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -858,22 +859,22 @@
       <c r="J4" s="4"/>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="17"/>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="4" t="s">
         <v>22</v>
@@ -894,33 +895,33 @@
       </c>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>3</v>
@@ -928,111 +929,111 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
       <c r="K14" s="11"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="30"/>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1045,22 +1046,22 @@
       <c r="J17" s="6"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="17"/>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
       <c r="K18" s="19"/>
     </row>
-    <row r="19" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1073,7 +1074,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1086,35 +1087,35 @@
       <c r="J20" s="8"/>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
       <c r="K21" s="11"/>
     </row>
-    <row r="22" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="24"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="30"/>
       <c r="K22" s="11"/>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="4" t="s">
         <v>6</v>
@@ -1129,20 +1130,20 @@
       <c r="J23" s="4"/>
       <c r="K23" s="11"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
       <c r="K24" s="11"/>
     </row>
-    <row r="25" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -1155,35 +1156,35 @@
       <c r="J25" s="13"/>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
       <c r="K26" s="11"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="24"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="30"/>
       <c r="K27" s="11"/>
     </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>10</v>
@@ -1198,20 +1199,20 @@
       <c r="J28" s="4"/>
       <c r="K28" s="11"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
       <c r="K29" s="11"/>
     </row>
-    <row r="30" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -1224,35 +1225,35 @@
       <c r="J30" s="13"/>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
       <c r="K31" s="11"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="24"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="30"/>
       <c r="K32" s="11"/>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="4" t="s">
         <v>19</v>
@@ -1267,631 +1268,658 @@
       <c r="J33" s="4"/>
       <c r="K33" s="11"/>
     </row>
-    <row r="34" spans="1:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
       <c r="K34" s="11"/>
     </row>
-    <row r="35" spans="1:11" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="9"/>
-    </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
-      <c r="B36" s="16" t="s">
+    <row r="35" spans="1:11" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="10"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="11"/>
+    </row>
+    <row r="36" spans="1:11" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A37" s="10"/>
+      <c r="B37" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="11"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="24"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
       <c r="K37" s="11"/>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="28"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="11"/>
+    </row>
+    <row r="39" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A39" s="10"/>
+      <c r="B39" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="11"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="24"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
       <c r="K39" s="11"/>
     </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="28"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="11"/>
+    </row>
+    <row r="41" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A41" s="10"/>
+      <c r="B41" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="11"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="14"/>
-    </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
-      <c r="B43" s="26" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42" s="10"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="11"/>
+    </row>
+    <row r="43" spans="1:11" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="14"/>
+    </row>
+    <row r="44" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A44" s="10"/>
+      <c r="B44" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="11"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="30"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
       <c r="K44" s="11"/>
     </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="10"/>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="39"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="11"/>
+    </row>
+    <row r="46" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A46" s="10"/>
+      <c r="B46" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="11"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="14"/>
-    </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
-      <c r="B48" s="26" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47" s="10"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="11"/>
+    </row>
+    <row r="48" spans="1:11" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="14"/>
+    </row>
+    <row r="49" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A49" s="10"/>
+      <c r="B49" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="11"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="10"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="30"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="10"/>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="39"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="11"/>
+    </row>
+    <row r="51" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A51" s="10"/>
+      <c r="B51" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="11"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="10"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="14"/>
-    </row>
-    <row r="53" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A53" s="10"/>
-      <c r="B53" s="32" t="s">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A52" s="10"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="11"/>
+    </row>
+    <row r="53" spans="1:11" ht="4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="14"/>
+    </row>
+    <row r="54" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A54" s="10"/>
+      <c r="B54" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="11"/>
-    </row>
-    <row r="54" spans="1:11" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
-      <c r="B54" s="36" t="s">
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="11"/>
+    </row>
+    <row r="55" spans="1:11" s="1" customFormat="1" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="10"/>
+      <c r="B55" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="36" t="s">
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="11"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="10"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="10"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="44"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="10"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="36"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
       <c r="K57" s="11"/>
     </row>
-    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
-      <c r="B58" s="27" t="s">
+    <row r="58" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="10"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="11"/>
+    </row>
+    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="12"/>
+      <c r="B59" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="14"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="42"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B64" s="42"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B66" s="42"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="42"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="42"/>
-      <c r="J66" s="42"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="42"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
-      <c r="H68" s="42"/>
-      <c r="I68" s="42"/>
-      <c r="J68" s="42"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="42"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="42"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="42"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="42"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B71" s="42"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="42"/>
-      <c r="H71" s="42"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="42"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="42"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B75" s="42"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="42"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B77" s="42"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="42"/>
-      <c r="H77" s="42"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="42"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B78" s="42"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="42"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="42"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B79" s="42"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="42"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="42"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="42"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="42"/>
-      <c r="H80" s="42"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="42"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="42"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="42"/>
-      <c r="H81" s="42"/>
-      <c r="I81" s="42"/>
-      <c r="J81" s="42"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B82" s="42"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="42"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="42"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="14"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="B59:J82"/>
+  <mergeCells count="46">
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="B49:J49"/>
+    <mergeCell ref="B59:J59"/>
+    <mergeCell ref="B50:J50"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="F55:J55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="B54:J54"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B18:J18"/>
     <mergeCell ref="D1:K1"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B5:J5"/>
@@ -1899,31 +1927,19 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="F9:J9"/>
     <mergeCell ref="F10:J10"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B11:J11"/>
     <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B53:J53"/>
-    <mergeCell ref="B51:J51"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B46:J46"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="B48:J48"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="B49:J49"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B60:J83"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
